--- a/commons/gxlsx/template.xlsx
+++ b/commons/gxlsx/template.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9200"/>
+    <workbookView windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
+    <sheet name="user1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>nickname</t>
   </si>
@@ -757,17 +758,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -792,6 +787,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,337 +1146,337 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.3846153846154" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.7211538461538" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5384615384615" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="2" customWidth="1"/>
-    <col min="11" max="16379" width="9" style="2"/>
-    <col min="16381" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.3846153846154" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.7211538461538" style="12" customWidth="1"/>
+    <col min="4" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="14" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.5384615384615" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="12" customWidth="1"/>
+    <col min="11" max="16379" width="9" style="12"/>
+    <col min="16381" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="13.6" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+    <row r="4" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" s="11" customFormat="1" ht="13.6" spans="1:10">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1495,4 +1496,325 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.1057692307692" customWidth="1"/>
+    <col min="4" max="4" width="17.7788461538462" customWidth="1"/>
+    <col min="5" max="5" width="19.2211538461538" customWidth="1"/>
+    <col min="6" max="6" width="25.7980769230769" customWidth="1"/>
+    <col min="7" max="7" width="18.5769230769231" customWidth="1"/>
+    <col min="8" max="8" width="20.5096153846154" customWidth="1"/>
+    <col min="9" max="9" width="15.8557692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="123456" tooltip="mailto:123@qq.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="123@qq.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.baidu.com"/>
+    <hyperlink ref="I3" r:id="rId1" display="123456" tooltip="mailto:123@qq.com"/>
+    <hyperlink ref="G3" r:id="rId1" display="123@qq.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.baidu.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>